--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arefy\Desktop\Valery\5_FIRST_TRY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Александр\Desktop\Студенты практика\5_FIRST_TRY\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F46FF7-66D2-4D87-9541-1D75B8C41F11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">Decals </t>
   </si>
@@ -78,12 +79,15 @@
   </si>
   <si>
     <t>https://www.chipdip.by/product/grm31cr61c226ke15l</t>
+  </si>
+  <si>
+    <t>DPACK, SOIC-8, QFN(5X6)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -103,12 +107,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -124,9 +134,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -407,20 +419,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5703125" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -428,7 +441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -436,7 +449,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -444,17 +457,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -462,47 +475,56 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://www.chipdip.ru/search?searchtext=%D0%B4%D0%B8%D0%BE%D0%B4+SR540"/>
-    <hyperlink ref="B4" r:id="rId2" display="https://www.chipdip.ru/product/sk54"/>
-    <hyperlink ref="B5" r:id="rId3" display="https://www.chipdip.ru/product/sr540"/>
-    <hyperlink ref="B6" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://www.chipdip.ru/search?searchtext=%D0%B4%D0%B8%D0%BE%D0%B4+SR540" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://www.chipdip.ru/product/sk54" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://www.chipdip.ru/product/sr540" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{02710461-A1A9-4F6C-9AA4-8C71D7E32BED}"/>
+    <hyperlink ref="B10" r:id="rId7" xr:uid="{B45A6A1D-06B2-42E7-B425-0161F24CA205}"/>
+    <hyperlink ref="B11" r:id="rId8" xr:uid="{CEEDB24F-D569-4850-828C-0D13DF9F52E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Александр\Desktop\Студенты практика\5_FIRST_TRY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arefy\Desktop\Valery\5_FIRST_TRY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F46FF7-66D2-4D87-9541-1D75B8C41F11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -63,9 +62,6 @@
     <t>AON7140 аналоги</t>
   </si>
   <si>
-    <t>https://aliexpress.ru/item/1005003009741608.html?gatewayAdapt=glo2rus</t>
-  </si>
-  <si>
     <t xml:space="preserve">корпуса для конденсатров: </t>
   </si>
   <si>
@@ -82,12 +78,15 @@
   </si>
   <si>
     <t>DPACK, SOIC-8, QFN(5X6)</t>
+  </si>
+  <si>
+    <t>https://www.chipdip.ru/product1/8015882364</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -116,7 +115,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,11 +418,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,6 +430,7 @@
     <col min="1" max="1" width="27.5703125" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
     <col min="6" max="6" width="26.5703125" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -485,46 +485,45 @@
         <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://www.chipdip.ru/search?searchtext=%D0%B4%D0%B8%D0%BE%D0%B4+SR540" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B4" r:id="rId2" display="https://www.chipdip.ru/product/sk54" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B5" r:id="rId3" display="https://www.chipdip.ru/product/sr540" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B8" r:id="rId6" xr:uid="{02710461-A1A9-4F6C-9AA4-8C71D7E32BED}"/>
-    <hyperlink ref="B10" r:id="rId7" xr:uid="{B45A6A1D-06B2-42E7-B425-0161F24CA205}"/>
-    <hyperlink ref="B11" r:id="rId8" xr:uid="{CEEDB24F-D569-4850-828C-0D13DF9F52E4}"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://www.chipdip.ru/search?searchtext=%D0%B4%D0%B8%D0%BE%D0%B4+SR540"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://www.chipdip.ru/product/sk54"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://www.chipdip.ru/product/sr540"/>
+    <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B10" r:id="rId6"/>
+    <hyperlink ref="B11" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -71,16 +71,16 @@
     <t>для катушки 2,2 мкГн, I=7,5 A</t>
   </si>
   <si>
-    <t>https://www.chipdip.ru/product/744316220</t>
-  </si>
-  <si>
     <t>https://www.chipdip.by/product/grm31cr61c226ke15l</t>
   </si>
   <si>
     <t>DPACK, SOIC-8, QFN(5X6)</t>
   </si>
   <si>
-    <t>https://www.chipdip.ru/product1/8015882364</t>
+    <t>https://www.lcsc.com/product-detail/MOSFETs_Texas-Instruments-CSD17576Q5B_C157569.html</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/product-detail/Power-Inductors_PROD-Tech-PSPHAQ104R-2R2M_C2983050.htmlhttps://www.lcsc.com/product-detail/Power-Inductors_cjiang-Changjiang-Microelectronics-Tech-FXL0530-2R2-M_C177247.html</t>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,13 +485,13 @@
         <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -504,7 +504,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -512,7 +512,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -524,6 +524,7 @@
     <hyperlink ref="B7" r:id="rId5"/>
     <hyperlink ref="B10" r:id="rId6"/>
     <hyperlink ref="B11" r:id="rId7"/>
+    <hyperlink ref="B8" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -80,7 +80,7 @@
     <t>https://www.lcsc.com/product-detail/MOSFETs_Texas-Instruments-CSD17576Q5B_C157569.html</t>
   </si>
   <si>
-    <t>https://www.lcsc.com/product-detail/Power-Inductors_PROD-Tech-PSPHAQ104R-2R2M_C2983050.htmlhttps://www.lcsc.com/product-detail/Power-Inductors_cjiang-Changjiang-Microelectronics-Tech-FXL0530-2R2-M_C177247.html</t>
+    <t>https://www.lcsc.com/product-detail/Power-Inductors_DMBJ-CXP0530-2R2M-AG-2-2uh_C7461347.html</t>
   </si>
 </sst>
 </file>

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -422,7 +422,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
